--- a/planificacio projecte5.xlsx
+++ b/planificacio projecte5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DAW2\proyecto5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DAW2\proyecto5\proyecto5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>del 25 al 20 de diciembre</t>
   </si>
@@ -68,7 +68,55 @@
     <t>* Empezar a programar login</t>
   </si>
   <si>
-    <t>*Programar mostrar los contactos</t>
+    <t>*Programar mostrar, editar, borrar los contactos</t>
+  </si>
+  <si>
+    <t>*programar registrarse</t>
+  </si>
+  <si>
+    <t>*empezar a implementar algunos elementos a la pantilla</t>
+  </si>
+  <si>
+    <t>*programacion de editar los usuarios</t>
+  </si>
+  <si>
+    <t>*implementar todas las paginas  enlazarlas entre sí.</t>
+  </si>
+  <si>
+    <t>* empezar con las apis de google</t>
+  </si>
+  <si>
+    <t>*intentar implementar las apis de gogle</t>
+  </si>
+  <si>
+    <t>* mostrar direcciones  de  1 contacto</t>
+  </si>
+  <si>
+    <t>* acabar de implementar las paginas en el bootstrap</t>
+  </si>
+  <si>
+    <t>* programar que se muestren  en el mapa todos los contactos</t>
+  </si>
+  <si>
+    <t>*crear libro de estilos</t>
+  </si>
+  <si>
+    <t>*  implementar mapas en la plantilla</t>
+  </si>
+  <si>
+    <t>Miercoles 1/2/2017</t>
+  </si>
+  <si>
+    <t>* programar ruta de dos direcciones</t>
+  </si>
+  <si>
+    <t>*pulir detallitos de la web</t>
+  </si>
+  <si>
+    <t>*empezar a subir paginas a hostinger</t>
+  </si>
+  <si>
+    <t>* finalizar proyecto</t>
   </si>
 </sst>
 </file>
@@ -109,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,12 +167,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,9 +223,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -191,12 +230,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -208,6 +241,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G23"/>
+  <dimension ref="A4:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,198 +542,220 @@
     <col min="1" max="8" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D16:D17"/>
@@ -700,6 +764,30 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
